--- a/Optimization models (Pyomo)/CORDOBA/resultados_modelo_transporte.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/resultados_modelo_transporte.xlsx
@@ -17163,7 +17163,7 @@
     </row>
     <row r="2" spans="1:2797">
       <c r="A2">
-        <v>1162576860500</v>
+        <v>25690221302.47002</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17202,40 +17202,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -17244,34 +17244,34 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -17346,40 +17346,40 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
         <v>1</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -17424,10 +17424,10 @@
         <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -17439,16 +17439,16 @@
         <v>0</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV2">
         <v>0</v>
@@ -17466,13 +17466,13 @@
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="DE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF2">
         <v>0</v>
@@ -17538,13 +17538,13 @@
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY2">
         <v>0</v>
@@ -17565,13 +17565,13 @@
         <v>1</v>
       </c>
       <c r="EE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH2">
         <v>0</v>
@@ -17583,19 +17583,19 @@
         <v>0</v>
       </c>
       <c r="EK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP2">
         <v>0</v>
@@ -17646,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG2">
         <v>0</v>
@@ -17658,10 +17658,10 @@
         <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL2">
         <v>0</v>
@@ -17673,25 +17673,25 @@
         <v>1</v>
       </c>
       <c r="FO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR2">
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV2">
         <v>0</v>
@@ -17700,10 +17700,10 @@
         <v>0</v>
       </c>
       <c r="FX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
         <v>0</v>
@@ -17778,40 +17778,40 @@
         <v>0</v>
       </c>
       <c r="GX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY2">
         <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -17889,37 +17889,37 @@
         <v>1</v>
       </c>
       <c r="II2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IT2">
         <v>0</v>
@@ -17994,40 +17994,40 @@
         <v>0</v>
       </c>
       <c r="JR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS2">
         <v>1</v>
       </c>
       <c r="JT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD2">
         <v>0</v>
@@ -18105,37 +18105,37 @@
         <v>1</v>
       </c>
       <c r="LC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN2">
         <v>0</v>
@@ -18213,37 +18213,37 @@
         <v>1</v>
       </c>
       <c r="MM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX2">
         <v>0</v>
@@ -18321,37 +18321,37 @@
         <v>1</v>
       </c>
       <c r="NW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OH2">
         <v>0</v>
@@ -18429,37 +18429,37 @@
         <v>1</v>
       </c>
       <c r="PG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PR2">
         <v>0</v>
@@ -18507,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="QG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QH2">
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="QL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QM2">
         <v>0</v>
@@ -18531,40 +18531,40 @@
         <v>0</v>
       </c>
       <c r="QO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QP2">
         <v>1</v>
       </c>
       <c r="QQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QS2">
         <v>0</v>
       </c>
       <c r="QT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QX2">
         <v>0</v>
       </c>
       <c r="QY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="QZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="RA2">
         <v>0</v>
@@ -18645,37 +18645,37 @@
         <v>1</v>
       </c>
       <c r="SA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SL2">
         <v>0</v>
@@ -18753,37 +18753,37 @@
         <v>1</v>
       </c>
       <c r="TK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="TV2">
         <v>0</v>
@@ -18861,37 +18861,37 @@
         <v>1</v>
       </c>
       <c r="UU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="UZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VF2">
         <v>0</v>
@@ -18930,43 +18930,43 @@
         <v>0</v>
       </c>
       <c r="VR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="VZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WC2">
         <v>0</v>
       </c>
       <c r="WD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WE2">
         <v>0</v>
@@ -18999,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="WO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="WP2">
         <v>0</v>
@@ -19077,37 +19077,37 @@
         <v>1</v>
       </c>
       <c r="XO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="XZ2">
         <v>0</v>
@@ -19185,37 +19185,37 @@
         <v>1</v>
       </c>
       <c r="YY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="YZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZJ2">
         <v>0</v>
@@ -19245,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="ZS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ZT2">
         <v>0</v>
@@ -19293,37 +19293,37 @@
         <v>1</v>
       </c>
       <c r="AAI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAQ2">
         <v>0</v>
       </c>
       <c r="AAR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAT2">
         <v>0</v>
@@ -19362,43 +19362,43 @@
         <v>0</v>
       </c>
       <c r="ABF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABI2">
         <v>0</v>
       </c>
       <c r="ABJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABN2">
         <v>0</v>
       </c>
       <c r="ABO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABS2">
         <v>0</v>
@@ -19407,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="ABU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ABV2">
         <v>0</v>
@@ -19422,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="ABZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ACA2">
         <v>0</v>
@@ -19482,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="ACT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ACU2">
         <v>0</v>
@@ -19509,37 +19509,37 @@
         <v>1</v>
       </c>
       <c r="ADC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADF2">
         <v>0</v>
       </c>
       <c r="ADG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ADN2">
         <v>0</v>
@@ -19617,37 +19617,37 @@
         <v>1</v>
       </c>
       <c r="AEM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AER2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AES2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AET2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AEX2">
         <v>0</v>
@@ -19722,40 +19722,40 @@
         <v>0</v>
       </c>
       <c r="AFV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AFW2">
         <v>1</v>
       </c>
       <c r="AFX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AFY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AFZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AGH2">
         <v>0</v>
@@ -19833,37 +19833,37 @@
         <v>1</v>
       </c>
       <c r="AHG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AHR2">
         <v>0</v>
@@ -19938,40 +19938,40 @@
         <v>0</v>
       </c>
       <c r="AIP2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIQ2">
         <v>33900</v>
       </c>
       <c r="AIR2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIS2">
-        <v>0</v>
+        <v>29720</v>
       </c>
       <c r="AIT2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIU2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIV2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIW2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIX2">
-        <v>0</v>
+        <v>29720</v>
       </c>
       <c r="AIY2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AIZ2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AJA2">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="AJB2">
         <v>0</v>
@@ -20016,10 +20016,10 @@
         <v>0</v>
       </c>
       <c r="AJP2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AJQ2">
-        <v>0</v>
+        <v>5027.561</v>
       </c>
       <c r="AJR2">
         <v>0</v>
@@ -20031,16 +20031,16 @@
         <v>0</v>
       </c>
       <c r="AJU2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AJV2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AJW2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AJX2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AJY2">
         <v>0</v>
@@ -20049,7 +20049,7 @@
         <v>6000</v>
       </c>
       <c r="AKA2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKB2">
         <v>0</v>
@@ -20058,13 +20058,13 @@
         <v>0</v>
       </c>
       <c r="AKD2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKE2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKF2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKG2">
         <v>0</v>
@@ -20079,7 +20079,7 @@
         <v>0</v>
       </c>
       <c r="AKK2">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AKL2">
         <v>0</v>
@@ -20130,13 +20130,13 @@
         <v>0</v>
       </c>
       <c r="ALB2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALC2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALD2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALE2">
         <v>0</v>
@@ -20157,10 +20157,10 @@
         <v>1800</v>
       </c>
       <c r="ALK2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALL2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALM2">
         <v>0</v>
@@ -20175,19 +20175,19 @@
         <v>0</v>
       </c>
       <c r="ALQ2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALR2">
         <v>0</v>
       </c>
       <c r="ALS2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALT2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALU2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="ALV2">
         <v>0</v>
@@ -20238,7 +20238,7 @@
         <v>0</v>
       </c>
       <c r="AML2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMM2">
         <v>0</v>
@@ -20250,10 +20250,10 @@
         <v>0</v>
       </c>
       <c r="AMP2">
-        <v>0</v>
+        <v>105.945000000007</v>
       </c>
       <c r="AMQ2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMR2">
         <v>0</v>
@@ -20265,10 +20265,10 @@
         <v>900</v>
       </c>
       <c r="AMU2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMV2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMW2">
         <v>0</v>
@@ -20277,13 +20277,13 @@
         <v>0</v>
       </c>
       <c r="AMY2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AMZ2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANA2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANB2">
         <v>0</v>
@@ -20292,10 +20292,10 @@
         <v>0</v>
       </c>
       <c r="AND2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANE2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="ANF2">
         <v>0</v>
@@ -21021,37 +21021,37 @@
         <v>4500</v>
       </c>
       <c r="AWM2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWN2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWO2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWP2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWQ2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWR2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWS2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWT2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWU2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWV2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWW2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="AWX2">
         <v>0</v>
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="AXM2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AXN2">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="AXR2">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="AXS2">
         <v>0</v>
@@ -21123,40 +21123,40 @@
         <v>0</v>
       </c>
       <c r="AXU2">
-        <v>0</v>
+        <v>10318.3825</v>
       </c>
       <c r="AXV2">
-        <v>11700</v>
+        <v>2600</v>
       </c>
       <c r="AXW2">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="AXX2">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="AXY2">
         <v>0</v>
       </c>
       <c r="AXZ2">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="AYA2">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="AYB2">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="AYC2">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="AYD2">
         <v>0</v>
       </c>
       <c r="AYE2">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="AYF2">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="AYG2">
         <v>0</v>
@@ -21522,43 +21522,43 @@
         <v>0</v>
       </c>
       <c r="BCX2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BCY2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BCZ2">
-        <v>0</v>
+        <v>442.940000000002</v>
       </c>
       <c r="BDA2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDB2">
-        <v>0</v>
+        <v>2251.955</v>
       </c>
       <c r="BDC2">
-        <v>0</v>
+        <v>2856.8665</v>
       </c>
       <c r="BDD2">
-        <v>0</v>
+        <v>2789.4675</v>
       </c>
       <c r="BDE2">
-        <v>0</v>
+        <v>1656.122</v>
       </c>
       <c r="BDF2">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="BDG2">
-        <v>0</v>
+        <v>486.525999999998</v>
       </c>
       <c r="BDH2">
-        <v>0</v>
+        <v>2835.6045</v>
       </c>
       <c r="BDI2">
         <v>0</v>
       </c>
       <c r="BDJ2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="BDK2">
         <v>0</v>
@@ -21591,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="BDU2">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="BDV2">
         <v>0</v>
@@ -21954,53 +21954,53 @@
         <v>0</v>
       </c>
       <c r="BIL2">
-        <v>0</v>
+        <v>14099</v>
       </c>
       <c r="BIM2">
-        <v>0</v>
+        <v>14941.4875</v>
       </c>
       <c r="BIN2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIO2">
         <v>0</v>
       </c>
       <c r="BIP2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIQ2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIR2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIS2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIT2">
         <v>0</v>
       </c>
       <c r="BIU2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIV2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIW2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BIX2">
+        <v>0</v>
+      </c>
+      <c r="BIY2">
+        <v>0</v>
+      </c>
+      <c r="BIZ2">
+        <v>0</v>
+      </c>
+      <c r="BJA2">
         <v>15000</v>
       </c>
-      <c r="BIY2">
-        <v>0</v>
-      </c>
-      <c r="BIZ2">
-        <v>0</v>
-      </c>
-      <c r="BJA2">
-        <v>0</v>
-      </c>
       <c r="BJB2">
         <v>0</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="BJF2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="BJG2">
         <v>0</v>
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="BJZ2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="BKA2">
         <v>0</v>
@@ -22098,17 +22098,17 @@
         <v>0</v>
       </c>
       <c r="BKH2">
+        <v>0</v>
+      </c>
+      <c r="BKI2">
+        <v>0</v>
+      </c>
+      <c r="BKJ2">
+        <v>0</v>
+      </c>
+      <c r="BKK2">
         <v>480</v>
       </c>
-      <c r="BKI2">
-        <v>0</v>
-      </c>
-      <c r="BKJ2">
-        <v>0</v>
-      </c>
-      <c r="BKK2">
-        <v>0</v>
-      </c>
       <c r="BKL2">
         <v>0</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="BKP2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="BKQ2">
         <v>0</v>
@@ -22314,40 +22314,40 @@
         <v>0</v>
       </c>
       <c r="BNB2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNC2">
         <v>300</v>
       </c>
       <c r="BND2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNE2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNF2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNG2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNH2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNI2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNJ2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNK2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNL2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNM2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="BNN2">
         <v>0</v>
@@ -22962,40 +22962,40 @@
         <v>0</v>
       </c>
       <c r="BVJ2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVK2">
         <v>1855</v>
       </c>
       <c r="BVL2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVM2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVN2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVO2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVP2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVQ2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVR2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVS2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVT2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVU2">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="BVV2">
         <v>0</v>
@@ -23073,37 +23073,37 @@
         <v>1630</v>
       </c>
       <c r="BWU2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWV2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWW2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWX2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWY2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BWZ2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXA2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXB2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXC2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXD2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXE2">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="BXF2">
         <v>0</v>
@@ -23178,40 +23178,40 @@
         <v>0</v>
       </c>
       <c r="BYD2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYE2">
         <v>1020</v>
       </c>
       <c r="BYF2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYG2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYH2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYI2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYJ2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYK2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYL2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYM2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYN2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYO2">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="BYP2">
         <v>0</v>
@@ -23289,37 +23289,37 @@
         <v>2700</v>
       </c>
       <c r="BZO2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZP2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZQ2">
-        <v>0</v>
+        <v>1088.904</v>
       </c>
       <c r="BZR2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZS2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZT2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZU2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZV2">
-        <v>0</v>
+        <v>1625.48</v>
       </c>
       <c r="BZW2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZX2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZY2">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="BZZ2">
         <v>0</v>
@@ -23397,37 +23397,37 @@
         <v>1420</v>
       </c>
       <c r="CAY2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CAZ2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBA2">
         <v>0</v>
       </c>
       <c r="CBB2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBC2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBD2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBE2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBF2">
         <v>0</v>
       </c>
       <c r="CBG2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBH2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBI2">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="CBJ2">
         <v>0</v>
@@ -23505,37 +23505,37 @@
         <v>3600</v>
       </c>
       <c r="CCI2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCJ2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCK2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCL2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCM2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCN2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCO2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCP2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCQ2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCR2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCS2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="CCT2">
         <v>0</v>
@@ -23613,37 +23613,37 @@
         <v>4500</v>
       </c>
       <c r="CDS2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDT2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDU2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDV2">
-        <v>0</v>
+        <v>4130.12</v>
       </c>
       <c r="CDW2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDX2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDY2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CDZ2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CEA2">
-        <v>0</v>
+        <v>3902.664</v>
       </c>
       <c r="CEB2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CEC2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CED2">
         <v>0</v>
@@ -23829,37 +23829,37 @@
         <v>4500</v>
       </c>
       <c r="CGM2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGN2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGO2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGP2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGQ2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGR2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGS2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGT2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGU2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGV2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGW2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="CGX2">
         <v>0</v>
@@ -23937,37 +23937,37 @@
         <v>900</v>
       </c>
       <c r="CHW2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CHX2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CHY2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CHZ2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIA2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIB2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIC2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CID2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIE2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIF2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIG2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="CIH2">
         <v>0</v>
@@ -24045,37 +24045,37 @@
         <v>2100</v>
       </c>
       <c r="CJG2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJH2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJI2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJJ2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJK2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJL2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJM2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJN2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJO2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJP2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJQ2">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="CJR2">
         <v>0</v>
@@ -24261,37 +24261,37 @@
         <v>3840</v>
       </c>
       <c r="CMA2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMB2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMC2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMD2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CME2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMF2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMG2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMH2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMI2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMJ2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CMK2">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="CML2">
         <v>0</v>
@@ -24366,40 +24366,40 @@
         <v>0</v>
       </c>
       <c r="CNJ2">
+        <v>521</v>
+      </c>
+      <c r="CNK2">
+        <v>940.199999999997</v>
+      </c>
+      <c r="CNL2">
         <v>2400</v>
       </c>
-      <c r="CNK2">
-        <v>0</v>
-      </c>
-      <c r="CNL2">
-        <v>0</v>
-      </c>
       <c r="CNM2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNN2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNO2">
-        <v>0</v>
+        <v>1644.456</v>
       </c>
       <c r="CNP2">
-        <v>0</v>
+        <v>1610.92</v>
       </c>
       <c r="CNQ2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNR2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNS2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNT2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNU2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CNV2">
         <v>0</v>
@@ -24474,17 +24474,17 @@
         <v>0</v>
       </c>
       <c r="COT2">
+        <v>0</v>
+      </c>
+      <c r="COU2">
+        <v>0</v>
+      </c>
+      <c r="COV2">
+        <v>133.160000000003</v>
+      </c>
+      <c r="COW2">
         <v>1260</v>
       </c>
-      <c r="COU2">
-        <v>0</v>
-      </c>
-      <c r="COV2">
-        <v>0</v>
-      </c>
-      <c r="COW2">
-        <v>0</v>
-      </c>
       <c r="COX2">
         <v>0</v>
       </c>
@@ -24495,19 +24495,19 @@
         <v>0</v>
       </c>
       <c r="CPA2">
-        <v>0</v>
+        <v>736.807999999997</v>
       </c>
       <c r="CPB2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPC2">
         <v>0</v>
       </c>
       <c r="CPD2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPE2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="CPF2">
         <v>0</v>
@@ -24690,17 +24690,17 @@
         <v>0</v>
       </c>
       <c r="CRN2">
+        <v>0</v>
+      </c>
+      <c r="CRO2">
+        <v>0</v>
+      </c>
+      <c r="CRP2">
+        <v>0</v>
+      </c>
+      <c r="CRQ2">
         <v>1200</v>
       </c>
-      <c r="CRO2">
-        <v>0</v>
-      </c>
-      <c r="CRP2">
-        <v>0</v>
-      </c>
-      <c r="CRQ2">
-        <v>0</v>
-      </c>
       <c r="CRR2">
         <v>0</v>
       </c>
@@ -24714,16 +24714,16 @@
         <v>0</v>
       </c>
       <c r="CRV2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="CRW2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="CRX2">
-        <v>0</v>
+        <v>63.6880000000019</v>
       </c>
       <c r="CRY2">
-        <v>0</v>
+        <v>801.480000000003</v>
       </c>
       <c r="CRZ2">
         <v>0</v>
@@ -24801,37 +24801,37 @@
         <v>1100</v>
       </c>
       <c r="CSY2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CSZ2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTA2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTB2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTC2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTD2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTE2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTF2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTG2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTH2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTI2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="CTJ2">
         <v>0</v>
@@ -24906,40 +24906,40 @@
         <v>0</v>
       </c>
       <c r="CUH2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUI2">
         <v>2400</v>
       </c>
       <c r="CUJ2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUK2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUL2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUM2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUN2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUO2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUP2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUQ2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUR2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUS2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="CUT2">
         <v>0</v>
@@ -25017,37 +25017,37 @@
         <v>1450</v>
       </c>
       <c r="CVS2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVT2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVU2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVV2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVW2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVX2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVY2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CVZ2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWA2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWB2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWC2">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="CWD2">
         <v>0</v>
@@ -25086,76 +25086,76 @@
         <v>0</v>
       </c>
       <c r="CWP2">
-        <v>0</v>
+        <v>17399</v>
       </c>
       <c r="CWQ2">
-        <v>0</v>
+        <v>18241.4875</v>
       </c>
       <c r="CWR2">
-        <v>0</v>
+        <v>21442.94</v>
       </c>
       <c r="CWS2">
-        <v>0</v>
+        <v>20027.561</v>
       </c>
       <c r="CWT2">
-        <v>0</v>
+        <v>20431.955</v>
       </c>
       <c r="CWU2">
-        <v>0</v>
+        <v>19656.8665</v>
       </c>
       <c r="CWV2">
-        <v>0</v>
+        <v>19589.4675</v>
       </c>
       <c r="CWW2">
-        <v>0</v>
+        <v>22656.122</v>
       </c>
       <c r="CWX2">
-        <v>0</v>
+        <v>21105.945</v>
       </c>
       <c r="CWY2">
-        <v>0</v>
+        <v>22386.526</v>
       </c>
       <c r="CWZ2">
-        <v>0</v>
+        <v>23835.6045</v>
       </c>
       <c r="CXA2">
-        <v>0</v>
+        <v>25318.3825</v>
       </c>
       <c r="CXB2">
-        <v>43680</v>
+        <v>50000</v>
       </c>
       <c r="CXC2">
-        <v>34200</v>
+        <v>50000</v>
       </c>
       <c r="CXD2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXE2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXF2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXG2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXH2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXI2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXJ2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXK2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXL2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXM2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="CXN2">
         <v>0</v>
@@ -25230,40 +25230,40 @@
         <v>0</v>
       </c>
       <c r="CYL2">
-        <v>32600</v>
+        <v>33536</v>
       </c>
       <c r="CYM2">
-        <v>5275</v>
+        <v>33955.2</v>
       </c>
       <c r="CYN2">
-        <v>0</v>
+        <v>35548.16</v>
       </c>
       <c r="CYO2">
-        <v>0</v>
+        <v>34843.904</v>
       </c>
       <c r="CYP2">
-        <v>0</v>
+        <v>35045.12</v>
       </c>
       <c r="CYQ2">
-        <v>0</v>
+        <v>34659.456</v>
       </c>
       <c r="CYR2">
-        <v>0</v>
+        <v>34625.92</v>
       </c>
       <c r="CYS2">
-        <v>0</v>
+        <v>36151.808</v>
       </c>
       <c r="CYT2">
-        <v>0</v>
+        <v>35380.48</v>
       </c>
       <c r="CYU2">
-        <v>0</v>
+        <v>36017.664</v>
       </c>
       <c r="CYV2">
-        <v>0</v>
+        <v>36738.688</v>
       </c>
       <c r="CYW2">
-        <v>0</v>
+        <v>37476.48</v>
       </c>
       <c r="CYX2">
         <v>0</v>
@@ -25482,76 +25482,76 @@
         <v>-0</v>
       </c>
       <c r="DBR2">
-        <v>23719</v>
+        <v>0</v>
       </c>
       <c r="DBS2">
-        <v>34041.4875</v>
+        <v>0</v>
       </c>
       <c r="DBT2">
-        <v>71442.94</v>
+        <v>0</v>
       </c>
       <c r="DBU2">
-        <v>70027.561</v>
+        <v>0</v>
       </c>
       <c r="DBV2">
-        <v>70431.955</v>
+        <v>0</v>
       </c>
       <c r="DBW2">
-        <v>69656.8665</v>
+        <v>0</v>
       </c>
       <c r="DBX2">
-        <v>69589.4675</v>
+        <v>0</v>
       </c>
       <c r="DBY2">
-        <v>72656.122</v>
+        <v>0</v>
       </c>
       <c r="DBZ2">
-        <v>71105.94500000001</v>
+        <v>0</v>
       </c>
       <c r="DCA2">
-        <v>72386.526</v>
+        <v>0</v>
       </c>
       <c r="DCB2">
-        <v>73835.6045</v>
+        <v>0</v>
       </c>
       <c r="DCC2">
-        <v>75318.38250000001</v>
+        <v>0</v>
       </c>
       <c r="DCD2">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="DCE2">
-        <v>28680.2</v>
+        <v>0</v>
       </c>
       <c r="DCF2">
-        <v>35548.16</v>
+        <v>0</v>
       </c>
       <c r="DCG2">
-        <v>34843.904</v>
+        <v>0</v>
       </c>
       <c r="DCH2">
-        <v>35045.12</v>
+        <v>0</v>
       </c>
       <c r="DCI2">
-        <v>34659.456</v>
+        <v>0</v>
       </c>
       <c r="DCJ2">
-        <v>34625.92</v>
+        <v>0</v>
       </c>
       <c r="DCK2">
-        <v>36151.808</v>
+        <v>0</v>
       </c>
       <c r="DCL2">
-        <v>35380.48</v>
+        <v>0</v>
       </c>
       <c r="DCM2">
-        <v>36017.664</v>
+        <v>0</v>
       </c>
       <c r="DCN2">
-        <v>36738.688</v>
+        <v>0</v>
       </c>
       <c r="DCO2">
-        <v>37476.48</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization models (Pyomo)/CORDOBA/resultados_modelo_transporte.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/resultados_modelo_transporte.xlsx
@@ -17163,7 +17163,7 @@
     </row>
     <row r="2" spans="1:2797">
       <c r="A2">
-        <v>25690221302.47002</v>
+        <v>1162576860500</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -17202,40 +17202,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -17244,34 +17244,34 @@
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -17346,40 +17346,40 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>1</v>
       </c>
       <c r="BL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -17424,10 +17424,10 @@
         <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL2">
         <v>0</v>
@@ -17439,16 +17439,16 @@
         <v>0</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="CU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2">
         <v>0</v>
@@ -17466,13 +17466,13 @@
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="DE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>0</v>
@@ -17538,13 +17538,13 @@
         <v>0</v>
       </c>
       <c r="DV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY2">
         <v>0</v>
@@ -17565,13 +17565,13 @@
         <v>1</v>
       </c>
       <c r="EE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH2">
         <v>0</v>
@@ -17583,19 +17583,19 @@
         <v>0</v>
       </c>
       <c r="EK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP2">
         <v>0</v>
@@ -17646,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG2">
         <v>0</v>
@@ -17658,10 +17658,10 @@
         <v>0</v>
       </c>
       <c r="FJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2">
         <v>0</v>
@@ -17673,25 +17673,25 @@
         <v>1</v>
       </c>
       <c r="FO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2">
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2">
         <v>0</v>
@@ -17700,10 +17700,10 @@
         <v>0</v>
       </c>
       <c r="FX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
         <v>0</v>
@@ -17778,40 +17778,40 @@
         <v>0</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GY2">
         <v>1</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -17889,37 +17889,37 @@
         <v>1</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IT2">
         <v>0</v>
@@ -17994,40 +17994,40 @@
         <v>0</v>
       </c>
       <c r="JR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JS2">
         <v>1</v>
       </c>
       <c r="JT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KD2">
         <v>0</v>
@@ -18105,37 +18105,37 @@
         <v>1</v>
       </c>
       <c r="LC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LN2">
         <v>0</v>
@@ -18213,37 +18213,37 @@
         <v>1</v>
       </c>
       <c r="MM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MX2">
         <v>0</v>
@@ -18321,37 +18321,37 @@
         <v>1</v>
       </c>
       <c r="NW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="NZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="OH2">
         <v>0</v>
@@ -18429,37 +18429,37 @@
         <v>1</v>
       </c>
       <c r="PG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="PR2">
         <v>0</v>
@@ -18507,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="QG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QH2">
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="QL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QM2">
         <v>0</v>
@@ -18531,40 +18531,40 @@
         <v>0</v>
       </c>
       <c r="QO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QP2">
         <v>1</v>
       </c>
       <c r="QQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QS2">
         <v>0</v>
       </c>
       <c r="QT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QX2">
         <v>0</v>
       </c>
       <c r="QY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="QZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="RA2">
         <v>0</v>
@@ -18645,37 +18645,37 @@
         <v>1</v>
       </c>
       <c r="SA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="SL2">
         <v>0</v>
@@ -18753,37 +18753,37 @@
         <v>1</v>
       </c>
       <c r="TK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="TV2">
         <v>0</v>
@@ -18861,113 +18861,113 @@
         <v>1</v>
       </c>
       <c r="UU2">
+        <v>0</v>
+      </c>
+      <c r="UV2">
+        <v>0</v>
+      </c>
+      <c r="UW2">
+        <v>0</v>
+      </c>
+      <c r="UX2">
+        <v>0</v>
+      </c>
+      <c r="UY2">
+        <v>0</v>
+      </c>
+      <c r="UZ2">
+        <v>0</v>
+      </c>
+      <c r="VA2">
+        <v>0</v>
+      </c>
+      <c r="VB2">
+        <v>0</v>
+      </c>
+      <c r="VC2">
+        <v>0</v>
+      </c>
+      <c r="VD2">
+        <v>0</v>
+      </c>
+      <c r="VE2">
+        <v>0</v>
+      </c>
+      <c r="VF2">
+        <v>0</v>
+      </c>
+      <c r="VG2">
+        <v>0</v>
+      </c>
+      <c r="VH2">
+        <v>0</v>
+      </c>
+      <c r="VI2">
+        <v>0</v>
+      </c>
+      <c r="VJ2">
+        <v>0</v>
+      </c>
+      <c r="VK2">
+        <v>0</v>
+      </c>
+      <c r="VL2">
+        <v>0</v>
+      </c>
+      <c r="VM2">
+        <v>0</v>
+      </c>
+      <c r="VN2">
+        <v>0</v>
+      </c>
+      <c r="VO2">
+        <v>0</v>
+      </c>
+      <c r="VP2">
+        <v>0</v>
+      </c>
+      <c r="VQ2">
+        <v>0</v>
+      </c>
+      <c r="VR2">
+        <v>0</v>
+      </c>
+      <c r="VS2">
+        <v>0</v>
+      </c>
+      <c r="VT2">
+        <v>0</v>
+      </c>
+      <c r="VU2">
+        <v>0</v>
+      </c>
+      <c r="VV2">
+        <v>0</v>
+      </c>
+      <c r="VW2">
+        <v>0</v>
+      </c>
+      <c r="VX2">
+        <v>0</v>
+      </c>
+      <c r="VY2">
+        <v>0</v>
+      </c>
+      <c r="VZ2">
+        <v>0</v>
+      </c>
+      <c r="WA2">
+        <v>0</v>
+      </c>
+      <c r="WB2">
+        <v>0</v>
+      </c>
+      <c r="WC2">
+        <v>0</v>
+      </c>
+      <c r="WD2">
         <v>1</v>
       </c>
-      <c r="UV2">
-        <v>1</v>
-      </c>
-      <c r="UW2">
-        <v>1</v>
-      </c>
-      <c r="UX2">
-        <v>1</v>
-      </c>
-      <c r="UY2">
-        <v>1</v>
-      </c>
-      <c r="UZ2">
-        <v>1</v>
-      </c>
-      <c r="VA2">
-        <v>1</v>
-      </c>
-      <c r="VB2">
-        <v>1</v>
-      </c>
-      <c r="VC2">
-        <v>1</v>
-      </c>
-      <c r="VD2">
-        <v>1</v>
-      </c>
-      <c r="VE2">
-        <v>1</v>
-      </c>
-      <c r="VF2">
-        <v>0</v>
-      </c>
-      <c r="VG2">
-        <v>0</v>
-      </c>
-      <c r="VH2">
-        <v>0</v>
-      </c>
-      <c r="VI2">
-        <v>0</v>
-      </c>
-      <c r="VJ2">
-        <v>0</v>
-      </c>
-      <c r="VK2">
-        <v>0</v>
-      </c>
-      <c r="VL2">
-        <v>0</v>
-      </c>
-      <c r="VM2">
-        <v>0</v>
-      </c>
-      <c r="VN2">
-        <v>0</v>
-      </c>
-      <c r="VO2">
-        <v>0</v>
-      </c>
-      <c r="VP2">
-        <v>0</v>
-      </c>
-      <c r="VQ2">
-        <v>0</v>
-      </c>
-      <c r="VR2">
-        <v>1</v>
-      </c>
-      <c r="VS2">
-        <v>1</v>
-      </c>
-      <c r="VT2">
-        <v>1</v>
-      </c>
-      <c r="VU2">
-        <v>1</v>
-      </c>
-      <c r="VV2">
-        <v>1</v>
-      </c>
-      <c r="VW2">
-        <v>1</v>
-      </c>
-      <c r="VX2">
-        <v>1</v>
-      </c>
-      <c r="VY2">
-        <v>1</v>
-      </c>
-      <c r="VZ2">
-        <v>1</v>
-      </c>
-      <c r="WA2">
-        <v>1</v>
-      </c>
-      <c r="WB2">
-        <v>1</v>
-      </c>
-      <c r="WC2">
-        <v>0</v>
-      </c>
-      <c r="WD2">
-        <v>0</v>
-      </c>
       <c r="WE2">
         <v>0</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="WO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WP2">
         <v>0</v>
@@ -19077,37 +19077,37 @@
         <v>1</v>
       </c>
       <c r="XO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="XZ2">
         <v>0</v>
@@ -19185,37 +19185,37 @@
         <v>1</v>
       </c>
       <c r="YY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="YZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZJ2">
         <v>0</v>
@@ -19245,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="ZS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ZT2">
         <v>0</v>
@@ -19293,113 +19293,113 @@
         <v>1</v>
       </c>
       <c r="AAI2">
+        <v>0</v>
+      </c>
+      <c r="AAJ2">
+        <v>0</v>
+      </c>
+      <c r="AAK2">
+        <v>0</v>
+      </c>
+      <c r="AAL2">
+        <v>0</v>
+      </c>
+      <c r="AAM2">
+        <v>0</v>
+      </c>
+      <c r="AAN2">
+        <v>0</v>
+      </c>
+      <c r="AAO2">
+        <v>0</v>
+      </c>
+      <c r="AAP2">
+        <v>0</v>
+      </c>
+      <c r="AAQ2">
+        <v>0</v>
+      </c>
+      <c r="AAR2">
+        <v>0</v>
+      </c>
+      <c r="AAS2">
+        <v>0</v>
+      </c>
+      <c r="AAT2">
+        <v>0</v>
+      </c>
+      <c r="AAU2">
+        <v>0</v>
+      </c>
+      <c r="AAV2">
+        <v>0</v>
+      </c>
+      <c r="AAW2">
+        <v>0</v>
+      </c>
+      <c r="AAX2">
+        <v>0</v>
+      </c>
+      <c r="AAY2">
+        <v>0</v>
+      </c>
+      <c r="AAZ2">
+        <v>0</v>
+      </c>
+      <c r="ABA2">
+        <v>0</v>
+      </c>
+      <c r="ABB2">
+        <v>0</v>
+      </c>
+      <c r="ABC2">
+        <v>0</v>
+      </c>
+      <c r="ABD2">
+        <v>0</v>
+      </c>
+      <c r="ABE2">
+        <v>0</v>
+      </c>
+      <c r="ABF2">
+        <v>0</v>
+      </c>
+      <c r="ABG2">
+        <v>0</v>
+      </c>
+      <c r="ABH2">
+        <v>0</v>
+      </c>
+      <c r="ABI2">
+        <v>0</v>
+      </c>
+      <c r="ABJ2">
+        <v>0</v>
+      </c>
+      <c r="ABK2">
+        <v>0</v>
+      </c>
+      <c r="ABL2">
+        <v>0</v>
+      </c>
+      <c r="ABM2">
+        <v>0</v>
+      </c>
+      <c r="ABN2">
+        <v>0</v>
+      </c>
+      <c r="ABO2">
+        <v>0</v>
+      </c>
+      <c r="ABP2">
+        <v>0</v>
+      </c>
+      <c r="ABQ2">
+        <v>0</v>
+      </c>
+      <c r="ABR2">
         <v>1</v>
       </c>
-      <c r="AAJ2">
-        <v>1</v>
-      </c>
-      <c r="AAK2">
-        <v>1</v>
-      </c>
-      <c r="AAL2">
-        <v>1</v>
-      </c>
-      <c r="AAM2">
-        <v>1</v>
-      </c>
-      <c r="AAN2">
-        <v>1</v>
-      </c>
-      <c r="AAO2">
-        <v>1</v>
-      </c>
-      <c r="AAP2">
-        <v>1</v>
-      </c>
-      <c r="AAQ2">
-        <v>0</v>
-      </c>
-      <c r="AAR2">
-        <v>1</v>
-      </c>
-      <c r="AAS2">
-        <v>1</v>
-      </c>
-      <c r="AAT2">
-        <v>0</v>
-      </c>
-      <c r="AAU2">
-        <v>0</v>
-      </c>
-      <c r="AAV2">
-        <v>0</v>
-      </c>
-      <c r="AAW2">
-        <v>0</v>
-      </c>
-      <c r="AAX2">
-        <v>0</v>
-      </c>
-      <c r="AAY2">
-        <v>0</v>
-      </c>
-      <c r="AAZ2">
-        <v>0</v>
-      </c>
-      <c r="ABA2">
-        <v>0</v>
-      </c>
-      <c r="ABB2">
-        <v>0</v>
-      </c>
-      <c r="ABC2">
-        <v>0</v>
-      </c>
-      <c r="ABD2">
-        <v>0</v>
-      </c>
-      <c r="ABE2">
-        <v>0</v>
-      </c>
-      <c r="ABF2">
-        <v>1</v>
-      </c>
-      <c r="ABG2">
-        <v>1</v>
-      </c>
-      <c r="ABH2">
-        <v>1</v>
-      </c>
-      <c r="ABI2">
-        <v>0</v>
-      </c>
-      <c r="ABJ2">
-        <v>1</v>
-      </c>
-      <c r="ABK2">
-        <v>1</v>
-      </c>
-      <c r="ABL2">
-        <v>1</v>
-      </c>
-      <c r="ABM2">
-        <v>1</v>
-      </c>
-      <c r="ABN2">
-        <v>0</v>
-      </c>
-      <c r="ABO2">
-        <v>1</v>
-      </c>
-      <c r="ABP2">
-        <v>1</v>
-      </c>
-      <c r="ABQ2">
-        <v>1</v>
-      </c>
-      <c r="ABR2">
-        <v>0</v>
-      </c>
       <c r="ABS2">
         <v>0</v>
       </c>
@@ -19407,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="ABU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABV2">
         <v>0</v>
@@ -19422,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="ABZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACA2">
         <v>0</v>
@@ -19482,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="ACT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACU2">
         <v>0</v>
@@ -19509,37 +19509,37 @@
         <v>1</v>
       </c>
       <c r="ADC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADF2">
         <v>0</v>
       </c>
       <c r="ADG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADN2">
         <v>0</v>
@@ -19617,37 +19617,37 @@
         <v>1</v>
       </c>
       <c r="AEM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AER2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AES2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AET2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEX2">
         <v>0</v>
@@ -19722,40 +19722,40 @@
         <v>0</v>
       </c>
       <c r="AFV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFW2">
         <v>1</v>
       </c>
       <c r="AFX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AFZ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AGH2">
         <v>0</v>
@@ -19833,37 +19833,37 @@
         <v>1</v>
       </c>
       <c r="AHG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AHR2">
         <v>0</v>
@@ -19938,40 +19938,40 @@
         <v>0</v>
       </c>
       <c r="AIP2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIQ2">
         <v>33900</v>
       </c>
       <c r="AIR2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIS2">
-        <v>29720</v>
+        <v>0</v>
       </c>
       <c r="AIT2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIU2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIV2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIW2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIX2">
-        <v>29720</v>
+        <v>0</v>
       </c>
       <c r="AIY2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AIZ2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AJA2">
-        <v>33900</v>
+        <v>0</v>
       </c>
       <c r="AJB2">
         <v>0</v>
@@ -20016,10 +20016,10 @@
         <v>0</v>
       </c>
       <c r="AJP2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AJQ2">
-        <v>5027.561</v>
+        <v>0</v>
       </c>
       <c r="AJR2">
         <v>0</v>
@@ -20031,16 +20031,16 @@
         <v>0</v>
       </c>
       <c r="AJU2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AJV2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AJW2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AJX2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AJY2">
         <v>0</v>
@@ -20049,7 +20049,7 @@
         <v>6000</v>
       </c>
       <c r="AKA2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKB2">
         <v>0</v>
@@ -20058,13 +20058,13 @@
         <v>0</v>
       </c>
       <c r="AKD2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKE2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKF2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKG2">
         <v>0</v>
@@ -20079,7 +20079,7 @@
         <v>0</v>
       </c>
       <c r="AKK2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AKL2">
         <v>0</v>
@@ -20130,13 +20130,13 @@
         <v>0</v>
       </c>
       <c r="ALB2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALC2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALD2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALE2">
         <v>0</v>
@@ -20157,10 +20157,10 @@
         <v>1800</v>
       </c>
       <c r="ALK2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALL2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALM2">
         <v>0</v>
@@ -20175,19 +20175,19 @@
         <v>0</v>
       </c>
       <c r="ALQ2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALR2">
         <v>0</v>
       </c>
       <c r="ALS2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALT2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALU2">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="ALV2">
         <v>0</v>
@@ -20238,7 +20238,7 @@
         <v>0</v>
       </c>
       <c r="AML2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMM2">
         <v>0</v>
@@ -20250,10 +20250,10 @@
         <v>0</v>
       </c>
       <c r="AMP2">
-        <v>105.945000000007</v>
+        <v>0</v>
       </c>
       <c r="AMQ2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMR2">
         <v>0</v>
@@ -20265,10 +20265,10 @@
         <v>900</v>
       </c>
       <c r="AMU2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMV2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMW2">
         <v>0</v>
@@ -20277,13 +20277,13 @@
         <v>0</v>
       </c>
       <c r="AMY2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AMZ2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANA2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANB2">
         <v>0</v>
@@ -20292,10 +20292,10 @@
         <v>0</v>
       </c>
       <c r="AND2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANE2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="ANF2">
         <v>0</v>
@@ -21021,37 +21021,37 @@
         <v>4500</v>
       </c>
       <c r="AWM2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWN2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWO2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWP2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWQ2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWR2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWS2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWT2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWU2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWV2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWW2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="AWX2">
         <v>0</v>
@@ -21099,64 +21099,64 @@
         <v>0</v>
       </c>
       <c r="AXM2">
+        <v>0</v>
+      </c>
+      <c r="AXN2">
+        <v>0</v>
+      </c>
+      <c r="AXO2">
+        <v>0</v>
+      </c>
+      <c r="AXP2">
+        <v>0</v>
+      </c>
+      <c r="AXQ2">
+        <v>0</v>
+      </c>
+      <c r="AXR2">
+        <v>0</v>
+      </c>
+      <c r="AXS2">
+        <v>0</v>
+      </c>
+      <c r="AXT2">
+        <v>0</v>
+      </c>
+      <c r="AXU2">
+        <v>0</v>
+      </c>
+      <c r="AXV2">
         <v>11700</v>
       </c>
-      <c r="AXN2">
-        <v>0</v>
-      </c>
-      <c r="AXO2">
-        <v>0</v>
-      </c>
-      <c r="AXP2">
-        <v>0</v>
-      </c>
-      <c r="AXQ2">
-        <v>0</v>
-      </c>
-      <c r="AXR2">
-        <v>11700</v>
-      </c>
-      <c r="AXS2">
-        <v>0</v>
-      </c>
-      <c r="AXT2">
-        <v>0</v>
-      </c>
-      <c r="AXU2">
-        <v>10318.3825</v>
-      </c>
-      <c r="AXV2">
-        <v>2600</v>
-      </c>
       <c r="AXW2">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="AXX2">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="AXY2">
         <v>0</v>
       </c>
       <c r="AXZ2">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="AYA2">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="AYB2">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="AYC2">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="AYD2">
         <v>0</v>
       </c>
       <c r="AYE2">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="AYF2">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="AYG2">
         <v>0</v>
@@ -21522,44 +21522,44 @@
         <v>0</v>
       </c>
       <c r="BCX2">
+        <v>0</v>
+      </c>
+      <c r="BCY2">
+        <v>0</v>
+      </c>
+      <c r="BCZ2">
+        <v>0</v>
+      </c>
+      <c r="BDA2">
+        <v>0</v>
+      </c>
+      <c r="BDB2">
+        <v>0</v>
+      </c>
+      <c r="BDC2">
+        <v>0</v>
+      </c>
+      <c r="BDD2">
+        <v>0</v>
+      </c>
+      <c r="BDE2">
+        <v>0</v>
+      </c>
+      <c r="BDF2">
+        <v>0</v>
+      </c>
+      <c r="BDG2">
+        <v>0</v>
+      </c>
+      <c r="BDH2">
+        <v>0</v>
+      </c>
+      <c r="BDI2">
+        <v>0</v>
+      </c>
+      <c r="BDJ2">
         <v>3300</v>
       </c>
-      <c r="BCY2">
-        <v>3300</v>
-      </c>
-      <c r="BCZ2">
-        <v>442.940000000002</v>
-      </c>
-      <c r="BDA2">
-        <v>3300</v>
-      </c>
-      <c r="BDB2">
-        <v>2251.955</v>
-      </c>
-      <c r="BDC2">
-        <v>2856.8665</v>
-      </c>
-      <c r="BDD2">
-        <v>2789.4675</v>
-      </c>
-      <c r="BDE2">
-        <v>1656.122</v>
-      </c>
-      <c r="BDF2">
-        <v>3300</v>
-      </c>
-      <c r="BDG2">
-        <v>486.525999999998</v>
-      </c>
-      <c r="BDH2">
-        <v>2835.6045</v>
-      </c>
-      <c r="BDI2">
-        <v>0</v>
-      </c>
-      <c r="BDJ2">
-        <v>0</v>
-      </c>
       <c r="BDK2">
         <v>0</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="BDU2">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="BDV2">
         <v>0</v>
@@ -21954,44 +21954,44 @@
         <v>0</v>
       </c>
       <c r="BIL2">
-        <v>14099</v>
+        <v>0</v>
       </c>
       <c r="BIM2">
-        <v>14941.4875</v>
+        <v>0</v>
       </c>
       <c r="BIN2">
+        <v>0</v>
+      </c>
+      <c r="BIO2">
+        <v>0</v>
+      </c>
+      <c r="BIP2">
+        <v>0</v>
+      </c>
+      <c r="BIQ2">
+        <v>0</v>
+      </c>
+      <c r="BIR2">
+        <v>0</v>
+      </c>
+      <c r="BIS2">
+        <v>0</v>
+      </c>
+      <c r="BIT2">
+        <v>0</v>
+      </c>
+      <c r="BIU2">
+        <v>0</v>
+      </c>
+      <c r="BIV2">
+        <v>0</v>
+      </c>
+      <c r="BIW2">
+        <v>0</v>
+      </c>
+      <c r="BIX2">
         <v>15000</v>
       </c>
-      <c r="BIO2">
-        <v>0</v>
-      </c>
-      <c r="BIP2">
-        <v>15000</v>
-      </c>
-      <c r="BIQ2">
-        <v>15000</v>
-      </c>
-      <c r="BIR2">
-        <v>15000</v>
-      </c>
-      <c r="BIS2">
-        <v>15000</v>
-      </c>
-      <c r="BIT2">
-        <v>0</v>
-      </c>
-      <c r="BIU2">
-        <v>15000</v>
-      </c>
-      <c r="BIV2">
-        <v>15000</v>
-      </c>
-      <c r="BIW2">
-        <v>15000</v>
-      </c>
-      <c r="BIX2">
-        <v>0</v>
-      </c>
       <c r="BIY2">
         <v>0</v>
       </c>
@@ -21999,7 +21999,7 @@
         <v>0</v>
       </c>
       <c r="BJA2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="BJB2">
         <v>0</v>
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="BJF2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="BJG2">
         <v>0</v>
@@ -22074,32 +22074,32 @@
         <v>0</v>
       </c>
       <c r="BJZ2">
+        <v>0</v>
+      </c>
+      <c r="BKA2">
+        <v>0</v>
+      </c>
+      <c r="BKB2">
+        <v>0</v>
+      </c>
+      <c r="BKC2">
+        <v>0</v>
+      </c>
+      <c r="BKD2">
+        <v>0</v>
+      </c>
+      <c r="BKE2">
+        <v>0</v>
+      </c>
+      <c r="BKF2">
+        <v>0</v>
+      </c>
+      <c r="BKG2">
+        <v>0</v>
+      </c>
+      <c r="BKH2">
         <v>480</v>
       </c>
-      <c r="BKA2">
-        <v>0</v>
-      </c>
-      <c r="BKB2">
-        <v>0</v>
-      </c>
-      <c r="BKC2">
-        <v>0</v>
-      </c>
-      <c r="BKD2">
-        <v>0</v>
-      </c>
-      <c r="BKE2">
-        <v>0</v>
-      </c>
-      <c r="BKF2">
-        <v>0</v>
-      </c>
-      <c r="BKG2">
-        <v>0</v>
-      </c>
-      <c r="BKH2">
-        <v>0</v>
-      </c>
       <c r="BKI2">
         <v>0</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="BKK2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="BKL2">
         <v>0</v>
@@ -22122,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="BKP2">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="BKQ2">
         <v>0</v>
@@ -22314,40 +22314,40 @@
         <v>0</v>
       </c>
       <c r="BNB2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNC2">
         <v>300</v>
       </c>
       <c r="BND2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNE2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNF2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNG2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNH2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNI2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNJ2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNK2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNL2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNM2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BNN2">
         <v>0</v>
@@ -22962,40 +22962,40 @@
         <v>0</v>
       </c>
       <c r="BVJ2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVK2">
         <v>1855</v>
       </c>
       <c r="BVL2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVM2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVN2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVO2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVP2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVQ2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVR2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVS2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVT2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVU2">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="BVV2">
         <v>0</v>
@@ -23073,37 +23073,37 @@
         <v>1630</v>
       </c>
       <c r="BWU2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWV2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWW2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWX2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWY2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BWZ2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXA2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXB2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXC2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXD2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXE2">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="BXF2">
         <v>0</v>
@@ -23178,40 +23178,40 @@
         <v>0</v>
       </c>
       <c r="BYD2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYE2">
         <v>1020</v>
       </c>
       <c r="BYF2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYG2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYH2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYI2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYJ2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYK2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYL2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYM2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYN2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYO2">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="BYP2">
         <v>0</v>
@@ -23289,37 +23289,37 @@
         <v>2700</v>
       </c>
       <c r="BZO2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZP2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZQ2">
-        <v>1088.904</v>
+        <v>0</v>
       </c>
       <c r="BZR2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZS2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZT2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZU2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZV2">
-        <v>1625.48</v>
+        <v>0</v>
       </c>
       <c r="BZW2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZX2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZY2">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="BZZ2">
         <v>0</v>
@@ -23397,37 +23397,37 @@
         <v>1420</v>
       </c>
       <c r="CAY2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CAZ2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBA2">
         <v>0</v>
       </c>
       <c r="CBB2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBC2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBD2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBE2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBF2">
         <v>0</v>
       </c>
       <c r="CBG2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBH2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBI2">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="CBJ2">
         <v>0</v>
@@ -23505,37 +23505,37 @@
         <v>3600</v>
       </c>
       <c r="CCI2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCJ2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCK2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCL2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCM2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCN2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCO2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCP2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCQ2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCR2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCS2">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="CCT2">
         <v>0</v>
@@ -23613,37 +23613,37 @@
         <v>4500</v>
       </c>
       <c r="CDS2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDT2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDU2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDV2">
-        <v>4130.12</v>
+        <v>0</v>
       </c>
       <c r="CDW2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDX2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDY2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CDZ2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CEA2">
-        <v>3902.664</v>
+        <v>0</v>
       </c>
       <c r="CEB2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CEC2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CED2">
         <v>0</v>
@@ -23829,37 +23829,37 @@
         <v>4500</v>
       </c>
       <c r="CGM2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGN2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGO2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGP2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGQ2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGR2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGS2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGT2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGU2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGV2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGW2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="CGX2">
         <v>0</v>
@@ -23937,37 +23937,37 @@
         <v>900</v>
       </c>
       <c r="CHW2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CHX2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CHY2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CHZ2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIA2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIB2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIC2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CID2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIE2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIF2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIG2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="CIH2">
         <v>0</v>
@@ -24045,37 +24045,37 @@
         <v>2100</v>
       </c>
       <c r="CJG2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJH2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJI2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJJ2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJK2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJL2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJM2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJN2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJO2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJP2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJQ2">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="CJR2">
         <v>0</v>
@@ -24261,37 +24261,37 @@
         <v>3840</v>
       </c>
       <c r="CMA2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMB2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMC2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMD2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CME2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMF2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMG2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMH2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMI2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMJ2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CMK2">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="CML2">
         <v>0</v>
@@ -24366,40 +24366,40 @@
         <v>0</v>
       </c>
       <c r="CNJ2">
-        <v>521</v>
+        <v>2400</v>
       </c>
       <c r="CNK2">
-        <v>940.199999999997</v>
+        <v>0</v>
       </c>
       <c r="CNL2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNM2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNN2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNO2">
-        <v>1644.456</v>
+        <v>0</v>
       </c>
       <c r="CNP2">
-        <v>1610.92</v>
+        <v>0</v>
       </c>
       <c r="CNQ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNR2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNS2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNT2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNU2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CNV2">
         <v>0</v>
@@ -24474,16 +24474,16 @@
         <v>0</v>
       </c>
       <c r="COT2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="COU2">
         <v>0</v>
       </c>
       <c r="COV2">
-        <v>133.160000000003</v>
+        <v>0</v>
       </c>
       <c r="COW2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="COX2">
         <v>0</v>
@@ -24495,19 +24495,19 @@
         <v>0</v>
       </c>
       <c r="CPA2">
-        <v>736.807999999997</v>
+        <v>0</v>
       </c>
       <c r="CPB2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPC2">
         <v>0</v>
       </c>
       <c r="CPD2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPE2">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="CPF2">
         <v>0</v>
@@ -24690,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="CRN2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="CRO2">
         <v>0</v>
@@ -24699,7 +24699,7 @@
         <v>0</v>
       </c>
       <c r="CRQ2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="CRR2">
         <v>0</v>
@@ -24714,16 +24714,16 @@
         <v>0</v>
       </c>
       <c r="CRV2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="CRW2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="CRX2">
-        <v>63.6880000000019</v>
+        <v>0</v>
       </c>
       <c r="CRY2">
-        <v>801.480000000003</v>
+        <v>0</v>
       </c>
       <c r="CRZ2">
         <v>0</v>
@@ -24801,37 +24801,37 @@
         <v>1100</v>
       </c>
       <c r="CSY2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CSZ2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTA2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTB2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTC2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTD2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTE2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTF2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTG2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTH2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTI2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="CTJ2">
         <v>0</v>
@@ -24906,40 +24906,40 @@
         <v>0</v>
       </c>
       <c r="CUH2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUI2">
         <v>2400</v>
       </c>
       <c r="CUJ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUK2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUL2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUM2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUN2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUO2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUP2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUQ2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUR2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUS2">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="CUT2">
         <v>0</v>
@@ -25017,37 +25017,37 @@
         <v>1450</v>
       </c>
       <c r="CVS2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVT2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVU2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVV2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVW2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVX2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVY2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CVZ2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWA2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWB2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWC2">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="CWD2">
         <v>0</v>
@@ -25086,76 +25086,76 @@
         <v>0</v>
       </c>
       <c r="CWP2">
-        <v>17399</v>
+        <v>0</v>
       </c>
       <c r="CWQ2">
-        <v>18241.4875</v>
+        <v>0</v>
       </c>
       <c r="CWR2">
-        <v>21442.94</v>
+        <v>0</v>
       </c>
       <c r="CWS2">
-        <v>20027.561</v>
+        <v>0</v>
       </c>
       <c r="CWT2">
-        <v>20431.955</v>
+        <v>0</v>
       </c>
       <c r="CWU2">
-        <v>19656.8665</v>
+        <v>0</v>
       </c>
       <c r="CWV2">
-        <v>19589.4675</v>
+        <v>0</v>
       </c>
       <c r="CWW2">
-        <v>22656.122</v>
+        <v>0</v>
       </c>
       <c r="CWX2">
-        <v>21105.945</v>
+        <v>0</v>
       </c>
       <c r="CWY2">
-        <v>22386.526</v>
+        <v>0</v>
       </c>
       <c r="CWZ2">
-        <v>23835.6045</v>
+        <v>0</v>
       </c>
       <c r="CXA2">
-        <v>25318.3825</v>
+        <v>0</v>
       </c>
       <c r="CXB2">
-        <v>50000</v>
+        <v>43680</v>
       </c>
       <c r="CXC2">
-        <v>50000</v>
+        <v>34200</v>
       </c>
       <c r="CXD2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXE2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXF2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXG2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXH2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXI2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXJ2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXK2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXL2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXM2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="CXN2">
         <v>0</v>
@@ -25230,40 +25230,40 @@
         <v>0</v>
       </c>
       <c r="CYL2">
-        <v>33536</v>
+        <v>32600</v>
       </c>
       <c r="CYM2">
-        <v>33955.2</v>
+        <v>5275</v>
       </c>
       <c r="CYN2">
-        <v>35548.16</v>
+        <v>0</v>
       </c>
       <c r="CYO2">
-        <v>34843.904</v>
+        <v>0</v>
       </c>
       <c r="CYP2">
-        <v>35045.12</v>
+        <v>0</v>
       </c>
       <c r="CYQ2">
-        <v>34659.456</v>
+        <v>0</v>
       </c>
       <c r="CYR2">
-        <v>34625.92</v>
+        <v>0</v>
       </c>
       <c r="CYS2">
-        <v>36151.808</v>
+        <v>0</v>
       </c>
       <c r="CYT2">
-        <v>35380.48</v>
+        <v>0</v>
       </c>
       <c r="CYU2">
-        <v>36017.664</v>
+        <v>0</v>
       </c>
       <c r="CYV2">
-        <v>36738.688</v>
+        <v>0</v>
       </c>
       <c r="CYW2">
-        <v>37476.48</v>
+        <v>0</v>
       </c>
       <c r="CYX2">
         <v>0</v>
@@ -25482,76 +25482,76 @@
         <v>-0</v>
       </c>
       <c r="DBR2">
-        <v>0</v>
+        <v>23719</v>
       </c>
       <c r="DBS2">
-        <v>0</v>
+        <v>34041.4875</v>
       </c>
       <c r="DBT2">
-        <v>0</v>
+        <v>71442.94</v>
       </c>
       <c r="DBU2">
-        <v>0</v>
+        <v>70027.561</v>
       </c>
       <c r="DBV2">
-        <v>0</v>
+        <v>70431.955</v>
       </c>
       <c r="DBW2">
-        <v>0</v>
+        <v>69656.8665</v>
       </c>
       <c r="DBX2">
-        <v>0</v>
+        <v>69589.4675</v>
       </c>
       <c r="DBY2">
-        <v>0</v>
+        <v>72656.122</v>
       </c>
       <c r="DBZ2">
-        <v>0</v>
+        <v>71105.94500000001</v>
       </c>
       <c r="DCA2">
-        <v>0</v>
+        <v>72386.526</v>
       </c>
       <c r="DCB2">
-        <v>0</v>
+        <v>73835.6045</v>
       </c>
       <c r="DCC2">
-        <v>0</v>
+        <v>75318.38250000001</v>
       </c>
       <c r="DCD2">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="DCE2">
-        <v>0</v>
+        <v>28680.2</v>
       </c>
       <c r="DCF2">
-        <v>0</v>
+        <v>35548.16</v>
       </c>
       <c r="DCG2">
-        <v>0</v>
+        <v>34843.904</v>
       </c>
       <c r="DCH2">
-        <v>0</v>
+        <v>35045.12</v>
       </c>
       <c r="DCI2">
-        <v>0</v>
+        <v>34659.456</v>
       </c>
       <c r="DCJ2">
-        <v>0</v>
+        <v>34625.92</v>
       </c>
       <c r="DCK2">
-        <v>0</v>
+        <v>36151.808</v>
       </c>
       <c r="DCL2">
-        <v>0</v>
+        <v>35380.48</v>
       </c>
       <c r="DCM2">
-        <v>0</v>
+        <v>36017.664</v>
       </c>
       <c r="DCN2">
-        <v>0</v>
+        <v>36738.688</v>
       </c>
       <c r="DCO2">
-        <v>0</v>
+        <v>37476.48</v>
       </c>
     </row>
   </sheetData>
